--- a/files/questions_original_rag.xlsx
+++ b/files/questions_original_rag.xlsx
@@ -14,99 +14,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
-  <si>
-    <t>Paper</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>Question</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Potential of the Synthetic Lethality Principle</t>
   </si>
   <si>
+    <t>Synthetic lethality as an engine for cancer drug target discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional characterization of SMARCA4 variants identified by targeted exome sequencing of 131,668 cancer patients </t>
+  </si>
+  <si>
+    <t>Emerging roles of pseudokinases</t>
+  </si>
+  <si>
     <t>Searching for synthetic lethality in cancer</t>
   </si>
   <si>
-    <t>Synthetic lethality as an engine for cancer drug target discovery</t>
-  </si>
-  <si>
-    <t>Emerging roles of pseudokinases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional characterization of SMARCA4 variants identified by targeted exome sequencing of 131,668 cancer patients </t>
-  </si>
-  <si>
     <t>Define synthetic lethality</t>
   </si>
   <si>
+    <t>Deletion of which gene leads to synthetic lethal inhibition of PRMT5?</t>
+  </si>
+  <si>
+    <t>Describe features of patient population in the paper</t>
+  </si>
+  <si>
+    <t>How many kinases and pseudokinases are encoded in human genome?</t>
+  </si>
+  <si>
+    <t>KRAS oncogene is mutated in which cancers?</t>
+  </si>
+  <si>
+    <t>List all known pseudokinases</t>
+  </si>
+  <si>
+    <t>Names of tumor suppressor proteins</t>
+  </si>
+  <si>
+    <t>PARP gene expression shows synthetic lethal relationship with mutations in which genes?</t>
+  </si>
+  <si>
+    <t>Synthetic lethality mechanims for BRAF gene can be harnessed in combination with which gene?</t>
+  </si>
+  <si>
     <t>Synthetic lethality was discovered in which model organism?</t>
   </si>
   <si>
-    <t>PARP gene expression shows synthetic lethal relationship with mutations in which genes?</t>
-  </si>
-  <si>
-    <t>Synthetic lethality mechanims for BRAF gene can be harnessed in combination with which gene?</t>
-  </si>
-  <si>
-    <t>Names of tumor suppressor proteins</t>
+    <t>What is Project Achilles?</t>
+  </si>
+  <si>
+    <t>What is the difference between pseudokinases and kinases?</t>
+  </si>
+  <si>
+    <t>What is the effect of SMARCA4 mutations on overall survival of NSCLC patients?</t>
+  </si>
+  <si>
+    <t>What is the role of SMARCA2 and SMARCA4 in cancer?</t>
+  </si>
+  <si>
+    <t>Which compounds are selectively lethal to MSH2 deficient cells?</t>
+  </si>
+  <si>
+    <t>Which drugs target BRAF mutations?</t>
+  </si>
+  <si>
+    <t>Which drugs target ERBB2 in breast cancer?</t>
+  </si>
+  <si>
+    <t>Which gene is synthetic lethal partner of ARID1A?</t>
+  </si>
+  <si>
+    <t>Which genes are targeted by Imatinib?</t>
   </si>
   <si>
     <t>Which model organisms was synthetic lethality first observed in?</t>
   </si>
   <si>
-    <t>Which drugs target ERBB2 in breast cancer?</t>
-  </si>
-  <si>
-    <t>KRAS oncogene is mutated in which cancers?</t>
-  </si>
-  <si>
-    <t>Which compounds are selectively lethal to MSH2 deficient cells?</t>
-  </si>
-  <si>
-    <t>Which genes are targeted by Imatinib?</t>
-  </si>
-  <si>
-    <t>Which drugs target BRAF mutations?</t>
-  </si>
-  <si>
-    <t>Deletion of which gene leads to synthetic lethal inhibition of PRMT5?</t>
-  </si>
-  <si>
-    <t>Which gene is synthetic lethal partner of ARID1A?</t>
-  </si>
-  <si>
-    <t>What is Project Achilles?</t>
-  </si>
-  <si>
-    <t>What is the difference between pseudokinases and kinases?</t>
+    <t>Which mutations are found in the Helicase domain of SMARCA4?</t>
   </si>
   <si>
     <t>Which proteins have both kinase and pseudokinase domains?</t>
   </si>
   <si>
-    <t>How many kinases and pseudokinases are encoded in human genome?</t>
-  </si>
-  <si>
     <t>Which Receptor Protein Kinases have been classified as pseudokinases?</t>
   </si>
   <si>
-    <t>List all known pseudokinases</t>
-  </si>
-  <si>
     <t>Which SMARCA4 mutations rescue depletion or knockdown of SMARCA2?</t>
   </si>
   <si>
-    <t>Which mutations are found in the Helicase domain of SMARCA4?</t>
-  </si>
-  <si>
-    <t>What is the effect of SMARCA4 mutations on overall survival of NSCLC patients?</t>
-  </si>
-  <si>
-    <t>What is the role of SMARCA2 and SMARCA4 in cancer?</t>
-  </si>
-  <si>
-    <t>Describe features of patient population in the paper</t>
+    <t>RAG</t>
   </si>
 </sst>
 </file>
@@ -464,210 +470,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
       <c r="B22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
